--- a/ThaumAge/Assets/Data/Excel/excel_base_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_base_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -40,16 +40,25 @@
     <t>备注</t>
   </si>
   <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>角色创建数据-头发</t>
+  </si>
+  <si>
     <t>1,2,3,4,5,6,7,8,9,10</t>
   </si>
   <si>
-    <t>角色创建数据-头发</t>
-  </si>
-  <si>
     <t>角色创建数据-眼睛</t>
   </si>
   <si>
     <t>角色创建数据-嘴巴</t>
+  </si>
+  <si>
+    <t>0,1200001,1200002</t>
+  </si>
+  <si>
+    <t>角色创建数据-衣服</t>
   </si>
 </sst>
 </file>
@@ -58,9 +67,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,6 +80,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -79,52 +119,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,80 +194,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,55 +233,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +371,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,115 +401,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,15 +424,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,8 +444,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -468,10 +470,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -482,6 +482,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,21 +524,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,133 +544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,13 +1026,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="47.625" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
@@ -1078,10 +1087,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1089,10 +1098,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_base_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_base_info.xlsx
@@ -40,7 +40,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>0,1</t>
+    <t>0,1,2,3</t>
   </si>
   <si>
     <t>角色创建数据-头发</t>
@@ -80,6 +80,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -90,43 +142,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,13 +158,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,22 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -194,31 +195,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,13 +233,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,19 +353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,120 +383,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,24 +414,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +424,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,6 +463,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -477,39 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,6 +515,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -532,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,133 +544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>

--- a/ThaumAge/Assets/Data/Excel/excel_base_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_base_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="16035"/>
+    <workbookView windowWidth="18060" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="BaseInfo" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>0,1,2,3</t>
+    <t>0,1,2,3,4,5,6,7,8,9,10</t>
   </si>
   <si>
     <t>角色创建数据-头发</t>
@@ -68,8 +68,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,86 +80,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,28 +195,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,13 +233,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,31 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,133 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,9 +429,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,32 +449,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +477,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,15 +524,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -532,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,133 +544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
